--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Vegfc</t>
+  </si>
+  <si>
+    <t>Vipr2</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Vegfc</t>
-  </si>
-  <si>
-    <t>Vipr2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.314218500000001</v>
+        <v>4.087702500000001</v>
       </c>
       <c r="H2">
-        <v>12.628437</v>
+        <v>8.175405000000001</v>
       </c>
       <c r="I2">
-        <v>0.4670554707680782</v>
+        <v>0.5135259811487827</v>
       </c>
       <c r="J2">
-        <v>0.3859564807867226</v>
+        <v>0.4289149707570554</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6483006666666666</v>
+        <v>0.5457685</v>
       </c>
       <c r="N2">
-        <v>1.944902</v>
+        <v>1.091537</v>
       </c>
       <c r="O2">
-        <v>0.2310664473662325</v>
+        <v>0.2223829530789573</v>
       </c>
       <c r="P2">
-        <v>0.3059082590740972</v>
+        <v>0.1867351219151685</v>
       </c>
       <c r="Q2">
-        <v>4.093512063029</v>
+        <v>2.23093926187125</v>
       </c>
       <c r="R2">
-        <v>24.561072378174</v>
+        <v>8.923757047485001</v>
       </c>
       <c r="S2">
-        <v>0.1079208483533431</v>
+        <v>0.1141994241706352</v>
       </c>
       <c r="T2">
-        <v>0.1180672751158315</v>
+        <v>0.08009348935555968</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.314218500000001</v>
+        <v>4.087702500000001</v>
       </c>
       <c r="H3">
-        <v>12.628437</v>
+        <v>8.175405000000001</v>
       </c>
       <c r="I3">
-        <v>0.4670554707680782</v>
+        <v>0.5135259811487827</v>
       </c>
       <c r="J3">
-        <v>0.3859564807867226</v>
+        <v>0.4289149707570554</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.059273</v>
+        <v>0.6483006666666666</v>
       </c>
       <c r="N3">
-        <v>4.118546</v>
+        <v>1.944902</v>
       </c>
       <c r="O3">
-        <v>0.7339632993341625</v>
+        <v>0.2641614837360347</v>
       </c>
       <c r="P3">
-        <v>0.6477947149915969</v>
+        <v>0.3327248751833928</v>
       </c>
       <c r="Q3">
-        <v>13.0026996731505</v>
+        <v>2.650060255885</v>
       </c>
       <c r="R3">
-        <v>52.01079869260201</v>
+        <v>15.90036153531</v>
       </c>
       <c r="S3">
-        <v>0.3428015742970091</v>
+        <v>0.1356537851172654</v>
       </c>
       <c r="T3">
-        <v>0.2500205684703947</v>
+        <v>0.1427106801094299</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.314218500000001</v>
+        <v>4.087702500000001</v>
       </c>
       <c r="H4">
-        <v>12.628437</v>
+        <v>8.175405000000001</v>
       </c>
       <c r="I4">
-        <v>0.4670554707680782</v>
+        <v>0.5135259811487827</v>
       </c>
       <c r="J4">
-        <v>0.3859564807867226</v>
+        <v>0.4289149707570554</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.06825266666666667</v>
+        <v>0.029003</v>
       </c>
       <c r="N4">
-        <v>0.204758</v>
+        <v>0.087009</v>
       </c>
       <c r="O4">
-        <v>0.0243265232026164</v>
+        <v>0.01181778132697105</v>
       </c>
       <c r="P4">
-        <v>0.03220581978500407</v>
+        <v>0.0148850989226356</v>
       </c>
       <c r="Q4">
-        <v>0.4309622505410001</v>
+        <v>0.1185556356075</v>
       </c>
       <c r="R4">
-        <v>2.585773503246</v>
+        <v>0.7113338136450001</v>
       </c>
       <c r="S4">
-        <v>0.01136183574654858</v>
+        <v>0.00606873775093457</v>
       </c>
       <c r="T4">
-        <v>0.01243004486507157</v>
+        <v>0.006384441769118127</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,108 +729,108 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.314218500000001</v>
+        <v>4.087702500000001</v>
       </c>
       <c r="H5">
-        <v>12.628437</v>
+        <v>8.175405000000001</v>
       </c>
       <c r="I5">
-        <v>0.4670554707680782</v>
+        <v>0.5135259811487827</v>
       </c>
       <c r="J5">
-        <v>0.3859564807867226</v>
+        <v>0.4289149707570554</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.029863</v>
+        <v>0.971405</v>
       </c>
       <c r="N5">
-        <v>0.089589</v>
+        <v>1.94281</v>
       </c>
       <c r="O5">
-        <v>0.01064373009698864</v>
+        <v>0.3958160145476781</v>
       </c>
       <c r="P5">
-        <v>0.01409120614930176</v>
+        <v>0.3323669854599601</v>
       </c>
       <c r="Q5">
-        <v>0.1885615070655</v>
+        <v>3.9708146470125</v>
       </c>
       <c r="R5">
-        <v>1.131369042393</v>
+        <v>15.88325858805</v>
       </c>
       <c r="S5">
-        <v>0.004971212371177393</v>
+        <v>0.2032618072249972</v>
       </c>
       <c r="T5">
-        <v>0.005438592335424732</v>
+        <v>0.1425571758491695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.096071</v>
+        <v>4.087702500000001</v>
       </c>
       <c r="H6">
-        <v>9.288212999999999</v>
+        <v>8.175405000000001</v>
       </c>
       <c r="I6">
-        <v>0.2290128063253425</v>
+        <v>0.5135259811487827</v>
       </c>
       <c r="J6">
-        <v>0.2838709178560645</v>
+        <v>0.4289149707570554</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.6483006666666666</v>
+        <v>0.259706</v>
       </c>
       <c r="N6">
-        <v>1.944902</v>
+        <v>0.779118</v>
       </c>
       <c r="O6">
-        <v>0.2310664473662325</v>
+        <v>0.105821767310359</v>
       </c>
       <c r="P6">
-        <v>0.3059082590740972</v>
+        <v>0.1332879185188429</v>
       </c>
       <c r="Q6">
-        <v>2.007184893347333</v>
+        <v>1.061600865465</v>
       </c>
       <c r="R6">
-        <v>18.064664040126</v>
+        <v>6.369605192790001</v>
       </c>
       <c r="S6">
-        <v>0.05291717555896794</v>
+        <v>0.05434222688495029</v>
       </c>
       <c r="T6">
-        <v>0.08683845828311473</v>
+        <v>0.0571691836737783</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>9.288212999999999</v>
       </c>
       <c r="I7">
-        <v>0.2290128063253425</v>
+        <v>0.3889502472308815</v>
       </c>
       <c r="J7">
-        <v>0.2838709178560645</v>
+        <v>0.4872974008358364</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.059273</v>
+        <v>0.5457685</v>
       </c>
       <c r="N7">
-        <v>4.118546</v>
+        <v>1.091537</v>
       </c>
       <c r="O7">
-        <v>0.7339632993341625</v>
+        <v>0.2223829530789573</v>
       </c>
       <c r="P7">
-        <v>0.6477947149915969</v>
+        <v>0.1867351219151685</v>
       </c>
       <c r="Q7">
-        <v>6.375655416383</v>
+        <v>1.6897380255635</v>
       </c>
       <c r="R7">
-        <v>38.253932498298</v>
+        <v>10.138428153381</v>
       </c>
       <c r="S7">
-        <v>0.1680869949203239</v>
+        <v>0.08649590457999394</v>
       </c>
       <c r="T7">
-        <v>0.1838900803269723</v>
+        <v>0.09099553955402465</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>9.288212999999999</v>
       </c>
       <c r="I8">
-        <v>0.2290128063253425</v>
+        <v>0.3889502472308815</v>
       </c>
       <c r="J8">
-        <v>0.2838709178560645</v>
+        <v>0.4872974008358364</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.06825266666666667</v>
+        <v>0.6483006666666666</v>
       </c>
       <c r="N8">
-        <v>0.204758</v>
+        <v>1.944902</v>
       </c>
       <c r="O8">
-        <v>0.0243265232026164</v>
+        <v>0.2641614837360347</v>
       </c>
       <c r="P8">
-        <v>0.03220581978500407</v>
+        <v>0.3327248751833928</v>
       </c>
       <c r="Q8">
-        <v>0.2113151019393333</v>
+        <v>2.007184893347333</v>
       </c>
       <c r="R8">
-        <v>1.901835917454</v>
+        <v>18.064664040126</v>
       </c>
       <c r="S8">
-        <v>0.005571085346769739</v>
+        <v>0.1027456744080072</v>
       </c>
       <c r="T8">
-        <v>0.009142295622676109</v>
+        <v>0.1621359668702954</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>9.288212999999999</v>
       </c>
       <c r="I9">
-        <v>0.2290128063253425</v>
+        <v>0.3889502472308815</v>
       </c>
       <c r="J9">
-        <v>0.2838709178560645</v>
+        <v>0.4872974008358364</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,152 +995,152 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.029863</v>
+        <v>0.029003</v>
       </c>
       <c r="N9">
-        <v>0.089589</v>
+        <v>0.087009</v>
       </c>
       <c r="O9">
-        <v>0.01064373009698864</v>
+        <v>0.01181778132697105</v>
       </c>
       <c r="P9">
-        <v>0.01409120614930176</v>
+        <v>0.0148850989226356</v>
       </c>
       <c r="Q9">
-        <v>0.092457968273</v>
+        <v>0.089795347213</v>
       </c>
       <c r="R9">
-        <v>0.8321217144569999</v>
+        <v>0.8081581249169999</v>
       </c>
       <c r="S9">
-        <v>0.002437550499280878</v>
+        <v>0.004596528968845884</v>
       </c>
       <c r="T9">
-        <v>0.004000083623301311</v>
+        <v>0.007253470016184638</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.02195966666666667</v>
+        <v>3.096071</v>
       </c>
       <c r="H10">
-        <v>0.06587899999999999</v>
+        <v>9.288212999999999</v>
       </c>
       <c r="I10">
-        <v>0.001624331253806005</v>
+        <v>0.3889502472308815</v>
       </c>
       <c r="J10">
-        <v>0.002013426285275722</v>
+        <v>0.4872974008358364</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6483006666666666</v>
+        <v>0.971405</v>
       </c>
       <c r="N10">
-        <v>1.944902</v>
+        <v>1.94281</v>
       </c>
       <c r="O10">
-        <v>0.2310664473662325</v>
+        <v>0.3958160145476781</v>
       </c>
       <c r="P10">
-        <v>0.3059082590740972</v>
+        <v>0.3323669854599601</v>
       </c>
       <c r="Q10">
-        <v>0.01423646653977778</v>
+        <v>3.007538849755</v>
       </c>
       <c r="R10">
-        <v>0.128128198858</v>
+        <v>18.04523309853</v>
       </c>
       <c r="S10">
-        <v>0.0003753284521628917</v>
+        <v>0.1539527367162616</v>
       </c>
       <c r="T10">
-        <v>0.0006159237297027228</v>
+        <v>0.1619615681382808</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.096071</v>
+      </c>
+      <c r="H11">
+        <v>9.288212999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.3889502472308815</v>
+      </c>
+      <c r="J11">
+        <v>0.4872974008358364</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G11">
-        <v>0.02195966666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.06587899999999999</v>
-      </c>
-      <c r="I11">
-        <v>0.001624331253806005</v>
-      </c>
-      <c r="J11">
-        <v>0.002013426285275722</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
       <c r="M11">
-        <v>2.059273</v>
+        <v>0.259706</v>
       </c>
       <c r="N11">
-        <v>4.118546</v>
+        <v>0.779118</v>
       </c>
       <c r="O11">
-        <v>0.7339632993341625</v>
+        <v>0.105821767310359</v>
       </c>
       <c r="P11">
-        <v>0.6477947149915969</v>
+        <v>0.1332879185188429</v>
       </c>
       <c r="Q11">
-        <v>0.04522094865566667</v>
+        <v>0.8040682151259999</v>
       </c>
       <c r="R11">
-        <v>0.271325691934</v>
+        <v>7.236613936133999</v>
       </c>
       <c r="S11">
-        <v>0.001192199526255052</v>
+        <v>0.04115940255777295</v>
       </c>
       <c r="T11">
-        <v>0.001304286906626776</v>
+        <v>0.0649508562570509</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.02195966666666667</v>
+        <v>0.73184</v>
       </c>
       <c r="H12">
-        <v>0.06587899999999999</v>
+        <v>1.46368</v>
       </c>
       <c r="I12">
-        <v>0.001624331253806005</v>
+        <v>0.09193889575964129</v>
       </c>
       <c r="J12">
-        <v>0.002013426285275722</v>
+        <v>0.0767906011258998</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.06825266666666667</v>
+        <v>0.5457685</v>
       </c>
       <c r="N12">
-        <v>0.204758</v>
+        <v>1.091537</v>
       </c>
       <c r="O12">
-        <v>0.0243265232026164</v>
+        <v>0.2223829530789573</v>
       </c>
       <c r="P12">
-        <v>0.03220581978500407</v>
+        <v>0.1867351219151685</v>
       </c>
       <c r="Q12">
-        <v>0.001498805809111111</v>
+        <v>0.39941521904</v>
       </c>
       <c r="R12">
-        <v>0.013489252282</v>
+        <v>1.59766087616</v>
       </c>
       <c r="S12">
-        <v>3.951433193444677E-05</v>
+        <v>0.02044564314184745</v>
       </c>
       <c r="T12">
-        <v>6.484404409398011E-05</v>
+        <v>0.01433950226318398</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,76 +1210,76 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.02195966666666667</v>
+        <v>0.73184</v>
       </c>
       <c r="H13">
-        <v>0.06587899999999999</v>
+        <v>1.46368</v>
       </c>
       <c r="I13">
-        <v>0.001624331253806005</v>
+        <v>0.09193889575964129</v>
       </c>
       <c r="J13">
-        <v>0.002013426285275722</v>
+        <v>0.0767906011258998</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.029863</v>
+        <v>0.6483006666666666</v>
       </c>
       <c r="N13">
-        <v>0.089589</v>
+        <v>1.944902</v>
       </c>
       <c r="O13">
-        <v>0.01064373009698864</v>
+        <v>0.2641614837360347</v>
       </c>
       <c r="P13">
-        <v>0.01409120614930176</v>
+        <v>0.3327248751833928</v>
       </c>
       <c r="Q13">
-        <v>0.0006557815256666667</v>
+        <v>0.4744523598933333</v>
       </c>
       <c r="R13">
-        <v>0.005902033730999999</v>
+        <v>2.84671415936</v>
       </c>
       <c r="S13">
-        <v>1.728894345361427E-05</v>
+        <v>0.02428671511691947</v>
       </c>
       <c r="T13">
-        <v>2.837160485224306E-05</v>
+        <v>0.02555014317487272</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
       <c r="E14">
         <v>2</v>
       </c>
@@ -1287,60 +1287,60 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.5235485</v>
+        <v>0.73184</v>
       </c>
       <c r="H14">
-        <v>3.047097</v>
+        <v>1.46368</v>
       </c>
       <c r="I14">
-        <v>0.1126951279727649</v>
+        <v>0.09193889575964129</v>
       </c>
       <c r="J14">
-        <v>0.09312687189521394</v>
+        <v>0.0767906011258998</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.6483006666666666</v>
+        <v>0.029003</v>
       </c>
       <c r="N14">
-        <v>1.944902</v>
+        <v>0.087009</v>
       </c>
       <c r="O14">
-        <v>0.2310664473662325</v>
+        <v>0.01181778132697105</v>
       </c>
       <c r="P14">
-        <v>0.3059082590740972</v>
+        <v>0.0148850989226356</v>
       </c>
       <c r="Q14">
-        <v>0.9877175082490001</v>
+        <v>0.02122555552</v>
       </c>
       <c r="R14">
-        <v>5.926305049494</v>
+        <v>0.12735333312</v>
       </c>
       <c r="S14">
-        <v>0.02604006285614971</v>
+        <v>0.001086513765530626</v>
       </c>
       <c r="T14">
-        <v>0.02848827925448137</v>
+        <v>0.001143035694087671</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.5235485</v>
+        <v>0.73184</v>
       </c>
       <c r="H15">
-        <v>3.047097</v>
+        <v>1.46368</v>
       </c>
       <c r="I15">
-        <v>0.1126951279727649</v>
+        <v>0.09193889575964129</v>
       </c>
       <c r="J15">
-        <v>0.09312687189521394</v>
+        <v>0.0767906011258998</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,42 +1367,42 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.059273</v>
+        <v>0.971405</v>
       </c>
       <c r="N15">
-        <v>4.118546</v>
+        <v>1.94281</v>
       </c>
       <c r="O15">
-        <v>0.7339632993341625</v>
+        <v>0.3958160145476781</v>
       </c>
       <c r="P15">
-        <v>0.6477947149915969</v>
+        <v>0.3323669854599601</v>
       </c>
       <c r="Q15">
-        <v>3.137402290240501</v>
+        <v>0.7109130352</v>
       </c>
       <c r="R15">
-        <v>12.549609160962</v>
+        <v>2.8436521408</v>
       </c>
       <c r="S15">
-        <v>0.08271408794577616</v>
+        <v>0.03639088730149564</v>
       </c>
       <c r="T15">
-        <v>0.06032709543741907</v>
+        <v>0.02552266060787354</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.5235485</v>
+        <v>0.73184</v>
       </c>
       <c r="H16">
-        <v>3.047097</v>
+        <v>1.46368</v>
       </c>
       <c r="I16">
-        <v>0.1126951279727649</v>
+        <v>0.09193889575964129</v>
       </c>
       <c r="J16">
-        <v>0.09312687189521394</v>
+        <v>0.0767906011258998</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.06825266666666667</v>
+        <v>0.259706</v>
       </c>
       <c r="N16">
-        <v>0.204758</v>
+        <v>0.779118</v>
       </c>
       <c r="O16">
-        <v>0.0243265232026164</v>
+        <v>0.105821767310359</v>
       </c>
       <c r="P16">
-        <v>0.03220581978500407</v>
+        <v>0.1332879185188429</v>
       </c>
       <c r="Q16">
-        <v>0.103986247921</v>
+        <v>0.19006323904</v>
       </c>
       <c r="R16">
-        <v>0.6239174875260001</v>
+        <v>1.14037943424</v>
       </c>
       <c r="S16">
-        <v>0.002741480645451289</v>
+        <v>0.009729136433848113</v>
       </c>
       <c r="T16">
-        <v>0.002999227253398421</v>
+        <v>0.0102352593858819</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,93 +1458,93 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.5235485</v>
+        <v>0.044456</v>
       </c>
       <c r="H17">
-        <v>3.047097</v>
+        <v>0.133368</v>
       </c>
       <c r="I17">
-        <v>0.1126951279727649</v>
+        <v>0.005584875860694431</v>
       </c>
       <c r="J17">
-        <v>0.09312687189521394</v>
+        <v>0.006997027281208326</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.029863</v>
+        <v>0.5457685</v>
       </c>
       <c r="N17">
-        <v>0.089589</v>
+        <v>1.091537</v>
       </c>
       <c r="O17">
-        <v>0.01064373009698864</v>
+        <v>0.2223829530789573</v>
       </c>
       <c r="P17">
-        <v>0.01409120614930176</v>
+        <v>0.1867351219151685</v>
       </c>
       <c r="Q17">
-        <v>0.04549772885550001</v>
+        <v>0.024262684436</v>
       </c>
       <c r="R17">
-        <v>0.2729863731330001</v>
+        <v>0.145576106616</v>
       </c>
       <c r="S17">
-        <v>0.001199496525387704</v>
+        <v>0.001241981186480611</v>
       </c>
       <c r="T17">
-        <v>0.001312269949915076</v>
+        <v>0.001306590742400197</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>2.563407</v>
+        <v>0.044456</v>
       </c>
       <c r="H18">
-        <v>7.690220999999999</v>
+        <v>0.133368</v>
       </c>
       <c r="I18">
-        <v>0.1896122636800084</v>
+        <v>0.005584875860694431</v>
       </c>
       <c r="J18">
-        <v>0.2350323031767232</v>
+        <v>0.006997027281208326</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,178 +1559,178 @@
         <v>1.944902</v>
       </c>
       <c r="O18">
-        <v>0.2310664473662325</v>
+        <v>0.2641614837360347</v>
       </c>
       <c r="P18">
-        <v>0.3059082590740972</v>
+        <v>0.3327248751833928</v>
       </c>
       <c r="Q18">
-        <v>1.661858467038</v>
+        <v>0.02882085443733333</v>
       </c>
       <c r="R18">
-        <v>14.956726203342</v>
+        <v>0.259387689936</v>
       </c>
       <c r="S18">
-        <v>0.04381303214560885</v>
+        <v>0.001475309093842604</v>
       </c>
       <c r="T18">
-        <v>0.07189832269096681</v>
+        <v>0.002328085028794835</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>2.563407</v>
+        <v>0.044456</v>
       </c>
       <c r="H19">
-        <v>7.690220999999999</v>
+        <v>0.133368</v>
       </c>
       <c r="I19">
-        <v>0.1896122636800084</v>
+        <v>0.005584875860694431</v>
       </c>
       <c r="J19">
-        <v>0.2350323031767232</v>
+        <v>0.006997027281208326</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>2.059273</v>
+        <v>0.029003</v>
       </c>
       <c r="N19">
-        <v>4.118546</v>
+        <v>0.087009</v>
       </c>
       <c r="O19">
-        <v>0.7339632993341625</v>
+        <v>0.01181778132697105</v>
       </c>
       <c r="P19">
-        <v>0.6477947149915969</v>
+        <v>0.0148850989226356</v>
       </c>
       <c r="Q19">
-        <v>5.278754823111</v>
+        <v>0.001289357368</v>
       </c>
       <c r="R19">
-        <v>31.672528938666</v>
+        <v>0.011604216312</v>
       </c>
       <c r="S19">
-        <v>0.1391684426447981</v>
+        <v>6.6000841659966E-05</v>
       </c>
       <c r="T19">
-        <v>0.152252683850184</v>
+        <v>0.000104151443245166</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>2.563407</v>
+        <v>0.044456</v>
       </c>
       <c r="H20">
-        <v>7.690220999999999</v>
+        <v>0.133368</v>
       </c>
       <c r="I20">
-        <v>0.1896122636800084</v>
+        <v>0.005584875860694431</v>
       </c>
       <c r="J20">
-        <v>0.2350323031767232</v>
+        <v>0.006997027281208326</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.06825266666666667</v>
+        <v>0.971405</v>
       </c>
       <c r="N20">
-        <v>0.204758</v>
+        <v>1.94281</v>
       </c>
       <c r="O20">
-        <v>0.0243265232026164</v>
+        <v>0.3958160145476781</v>
       </c>
       <c r="P20">
-        <v>0.03220581978500407</v>
+        <v>0.3323669854599601</v>
       </c>
       <c r="Q20">
-        <v>0.174959363502</v>
+        <v>0.04318478067999999</v>
       </c>
       <c r="R20">
-        <v>1.574634271518</v>
+        <v>0.25910868408</v>
       </c>
       <c r="S20">
-        <v>0.004612607131912342</v>
+        <v>0.002210583304923603</v>
       </c>
       <c r="T20">
-        <v>0.007569407999763989</v>
+        <v>0.002325580864636312</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>2.563407</v>
+        <v>0.044456</v>
       </c>
       <c r="H21">
-        <v>7.690220999999999</v>
+        <v>0.133368</v>
       </c>
       <c r="I21">
-        <v>0.1896122636800084</v>
+        <v>0.005584875860694431</v>
       </c>
       <c r="J21">
-        <v>0.2350323031767232</v>
+        <v>0.006997027281208326</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.029863</v>
+        <v>0.259706</v>
       </c>
       <c r="N21">
-        <v>0.089589</v>
+        <v>0.779118</v>
       </c>
       <c r="O21">
-        <v>0.01064373009698864</v>
+        <v>0.105821767310359</v>
       </c>
       <c r="P21">
-        <v>0.01409120614930176</v>
+        <v>0.1332879185188429</v>
       </c>
       <c r="Q21">
-        <v>0.07655102324099999</v>
+        <v>0.011545489936</v>
       </c>
       <c r="R21">
-        <v>0.688959209169</v>
+        <v>0.103909409424</v>
       </c>
       <c r="S21">
-        <v>0.002018181757689051</v>
+        <v>0.0005910014337876471</v>
       </c>
       <c r="T21">
-        <v>0.003311888635808399</v>
+        <v>0.0009326192021318164</v>
       </c>
     </row>
   </sheetData>
